--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A534552-F0C1-4BD6-849F-4B746A771AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DFC26D-2F38-4E4E-AC15-F629E9C3D99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>MDOT</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t xml:space="preserve">Agency Profile </t>
@@ -391,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,7 +403,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,7 +720,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -757,16 +753,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -774,16 +770,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -791,16 +787,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -808,16 +804,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -825,16 +821,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -842,16 +838,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -859,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -876,16 +872,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -893,16 +889,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -910,16 +906,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -927,16 +923,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -944,16 +940,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -961,16 +957,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -978,16 +974,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -995,16 +991,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1012,16 +1008,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1029,16 +1025,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1046,16 +1042,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
+      <c r="D19" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1063,16 +1059,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1080,16 +1076,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1097,16 +1093,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1114,16 +1110,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1131,16 +1127,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1148,16 +1144,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1165,16 +1161,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
+      <c r="D26" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1182,16 +1178,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1199,16 +1195,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1216,16 +1212,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1233,16 +1229,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1250,16 +1246,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1267,16 +1263,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -1285,16 +1281,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -1303,16 +1299,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="5"/>
     </row>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DFC26D-2F38-4E4E-AC15-F629E9C3D99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF360F02-2AB6-4AA8-BD5F-BF544B66B048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenarios!$E$1:$E$43</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -271,6 +274,9 @@
   </si>
   <si>
     <t>Agency Object Group Profile</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -719,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,7 +1122,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>76</v>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF360F02-2AB6-4AA8-BD5F-BF544B66B048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B00B3-AC8C-44DC-A3A0-BE9845DD9E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -725,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -985,7 +985,7 @@
       <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
@@ -1002,7 +1002,7 @@
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
@@ -1019,7 +1019,7 @@
       <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
@@ -1036,7 +1036,7 @@
       <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
@@ -1053,8 +1053,8 @@
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>6</v>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>75</v>
@@ -1070,7 +1070,7 @@
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
@@ -1087,7 +1087,7 @@
       <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
@@ -1104,7 +1104,7 @@
       <c r="C22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
@@ -1121,8 +1121,8 @@
       <c r="C23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>79</v>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>76</v>
@@ -1138,7 +1138,7 @@
       <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
@@ -1155,7 +1155,7 @@
       <c r="C25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E25" t="s">
@@ -1172,7 +1172,7 @@
       <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
@@ -1257,7 +1257,7 @@
       <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" t="s">
@@ -1274,7 +1274,7 @@
       <c r="C32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B00B3-AC8C-44DC-A3A0-BE9845DD9E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDD7DE1-9E70-42E1-B696-C6BB6EA3C34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,7 +1104,7 @@
       <c r="C22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
@@ -1240,7 +1240,7 @@
       <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E30" t="s">
